--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Epha4.xlsx
@@ -534,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N2">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P2">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q2">
-        <v>0.2037387043323333</v>
+        <v>0.1643279619566667</v>
       </c>
       <c r="R2">
-        <v>1.833648338991</v>
+        <v>1.47895165761</v>
       </c>
       <c r="S2">
-        <v>0.007915967908440704</v>
+        <v>0.004570267134533983</v>
       </c>
       <c r="T2">
-        <v>0.007915967908440702</v>
+        <v>0.004570267134533982</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H3">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J3">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>21.000902</v>
       </c>
       <c r="O3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P3">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q3">
-        <v>0.4993104456513334</v>
+        <v>0.1423511140566667</v>
       </c>
       <c r="R3">
-        <v>4.493794010862</v>
+        <v>1.28116002651</v>
       </c>
       <c r="S3">
-        <v>0.01939997349584556</v>
+        <v>0.003959050002147785</v>
       </c>
       <c r="T3">
-        <v>0.01939997349584556</v>
+        <v>0.003959050002147785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H4">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J4">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>6.765884</v>
       </c>
       <c r="O4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P4">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q4">
-        <v>0.1608634026893333</v>
+        <v>0.04586141704666666</v>
       </c>
       <c r="R4">
-        <v>1.447770624204</v>
+        <v>0.41275275342</v>
       </c>
       <c r="S4">
-        <v>0.006250111079798644</v>
+        <v>0.001275491551016792</v>
       </c>
       <c r="T4">
-        <v>0.006250111079798644</v>
+        <v>0.001275491551016792</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J5">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N5">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P5">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q5">
-        <v>0.8804093073510001</v>
+        <v>2.490762597402</v>
       </c>
       <c r="R5">
-        <v>7.923683766159</v>
+        <v>22.416863376618</v>
       </c>
       <c r="S5">
-        <v>0.03420700964071556</v>
+        <v>0.06927275372547176</v>
       </c>
       <c r="T5">
-        <v>0.03420700964071556</v>
+        <v>0.06927275372547174</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J6">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>21.000902</v>
       </c>
       <c r="O6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P6">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q6">
         <v>2.157653672382001</v>
@@ -818,10 +818,10 @@
         <v>19.41888305143801</v>
       </c>
       <c r="S6">
-        <v>0.08383246219257792</v>
+        <v>0.06000837318967282</v>
       </c>
       <c r="T6">
-        <v>0.08383246219257792</v>
+        <v>0.06000837318967282</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J7">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>6.765884</v>
       </c>
       <c r="O7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P7">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q7">
         <v>0.695133688044</v>
@@ -880,10 +880,10 @@
         <v>6.256203192396001</v>
       </c>
       <c r="S7">
-        <v>0.02700839776450401</v>
+        <v>0.01933296446171865</v>
       </c>
       <c r="T7">
-        <v>0.02700839776450401</v>
+        <v>0.01933296446171865</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,43 +909,43 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H8">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J8">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>2.856403666666667</v>
+        <v>8.081040666666667</v>
       </c>
       <c r="N8">
-        <v>8.569210999999999</v>
+        <v>24.243122</v>
       </c>
       <c r="O8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="P8">
-        <v>0.235832554697756</v>
+        <v>0.4661250698616886</v>
       </c>
       <c r="Q8">
-        <v>4.985636465622555</v>
+        <v>14.10484501825622</v>
       </c>
       <c r="R8">
-        <v>44.870728190603</v>
+        <v>126.943605164306</v>
       </c>
       <c r="S8">
-        <v>0.1937095771485997</v>
+        <v>0.3922820490016829</v>
       </c>
       <c r="T8">
-        <v>0.1937095771485997</v>
+        <v>0.3922820490016828</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H9">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J9">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>21.000902</v>
       </c>
       <c r="O9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294714</v>
       </c>
       <c r="P9">
-        <v>0.5779641054021444</v>
+        <v>0.4037865631294715</v>
       </c>
       <c r="Q9">
         <v>12.21849512424956</v>
@@ -1004,10 +1004,10 @@
         <v>109.966456118246</v>
       </c>
       <c r="S9">
-        <v>0.4747316697137209</v>
+        <v>0.3398191399376508</v>
       </c>
       <c r="T9">
-        <v>0.4747316697137209</v>
+        <v>0.3398191399376508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H10">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J10">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>6.765884</v>
       </c>
       <c r="O10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="P10">
-        <v>0.1862033399000996</v>
+        <v>0.1300883670088399</v>
       </c>
       <c r="Q10">
-        <v>3.936446190036888</v>
+        <v>3.936446190036889</v>
       </c>
       <c r="R10">
-        <v>35.428015710332</v>
+        <v>35.42801571033201</v>
       </c>
       <c r="S10">
-        <v>0.1529448310557969</v>
+        <v>0.1094799109961045</v>
       </c>
       <c r="T10">
-        <v>0.1529448310557969</v>
+        <v>0.1094799109961045</v>
       </c>
     </row>
   </sheetData>
